--- a/tut05/output/0501EE04.xlsx
+++ b/tut05/output/0501EE04.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.428571428571429</v>
+        <v>7.43</v>
       </c>
       <c r="C6" t="n">
-        <v>8.409090909090908</v>
+        <v>8.41</v>
       </c>
       <c r="D6" t="n">
-        <v>8.021739130434783</v>
+        <v>8.02</v>
       </c>
       <c r="E6" t="n">
-        <v>8.065217391304348</v>
+        <v>8.07</v>
       </c>
       <c r="F6" t="n">
-        <v>8.461538461538462</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>8.475</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>9</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.428571428571429</v>
+        <v>7.43</v>
       </c>
       <c r="C8" t="n">
-        <v>7.89247311827957</v>
+        <v>7.89</v>
       </c>
       <c r="D8" t="n">
-        <v>7.935251798561151</v>
+        <v>7.94</v>
       </c>
       <c r="E8" t="n">
-        <v>7.967567567567568</v>
+        <v>7.97</v>
       </c>
       <c r="F8" t="n">
-        <v>8.053571428571429</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.117424242424242</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>8.241042345276872</v>
+        <v>8.24</v>
       </c>
       <c r="I8" t="n">
-        <v>8.214492753623189</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
   </sheetData>
